--- a/Hardware/Documents/BomForSolarCharger.xlsx
+++ b/Hardware/Documents/BomForSolarCharger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nordic\Desktop\OpenProjects\ChargeControllerWithMPPT\Hardware\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5881972B-3F44-4E83-9217-329C8BF2B579}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C348148A-3C32-47DD-8A4A-A1B83B6E2FB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D73EB0D6-555A-49AE-BD51-D8A80D670304}"/>
+    <workbookView xWindow="3720" yWindow="3720" windowWidth="21630" windowHeight="15435" xr2:uid="{D73EB0D6-555A-49AE-BD51-D8A80D670304}"/>
   </bookViews>
   <sheets>
     <sheet name="Solar Charger" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="255">
   <si>
     <t>Designator</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Samsung</t>
   </si>
   <si>
-    <t>Ceramic capacitor, 0.47μF, X7R, ±10%, 25V, 805, -55...+125°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL21B474KAFNNNG/1276-6480-1-ND/5958108</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>CL21B225KAFNFNE</t>
   </si>
   <si>
-    <t>Ceramic capacitor, 2.2μF, X7R, ±10%, 25V, 805, -55...+125°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL21B225KAFNFNE/1276-2953-1-ND/3891039</t>
   </si>
   <si>
@@ -116,9 +110,6 @@
     <t>CL21B105KBFNNNG</t>
   </si>
   <si>
-    <t>Ceramic capacitor, 1μF, X7R, ±10%, 50V, 805, -55...+125°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL21B105KBFNNNG/1276-6470-1-ND/5958098</t>
   </si>
   <si>
@@ -131,9 +122,6 @@
     <t>CL21B103KBANNNC</t>
   </si>
   <si>
-    <t>Ceramic capacitor, 0.01μF, X7R, ±10%, 50V, 805, -55...+125°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL21B103KBANNNC/1276-1015-1-ND/3889101</t>
   </si>
   <si>
@@ -161,9 +149,6 @@
     <t>CL21B471KBANNNC</t>
   </si>
   <si>
-    <t>Ceramic capacitor, 470pF, X7R, ±10%, 50V, 805, -55...+125°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL21B471KBANNNC/1276-1300-1-ND/3889386</t>
   </si>
   <si>
@@ -176,9 +161,6 @@
     <t>CL21B106KQQNNNG</t>
   </si>
   <si>
-    <t>Ceramic capacitor, 10μF, X7R, ±10%, 6.3V, 805, -55...+125°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL21B106KQQNNNG/1276-6474-1-ND/5958102</t>
   </si>
   <si>
@@ -191,9 +173,6 @@
     <t>CL21B104KBCNFNC</t>
   </si>
   <si>
-    <t>Ceramic capacitor, 0.1μF, X7R, ±10%, 50V, 805, -55...+125°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL21B104KBCNFNC/1276-2444-1-ND/3890530</t>
   </si>
   <si>
@@ -230,9 +209,6 @@
     <t>CL21C120JBANNNC</t>
   </si>
   <si>
-    <t>Ceramic capacitor, 12pF, NPO, ±5%, 50V, 805, -55...+125°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL21C120JBANNNC/1276-1120-1-ND/3889206</t>
   </si>
   <si>
@@ -413,9 +389,6 @@
     <t>Murata Electronics</t>
   </si>
   <si>
-    <t>Fixed inductor, 10μH, ±20%, 805, 250mA, -55...+125°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/murata-electronics/LQM21DH100M70L/490-18463-1-ND/10135474</t>
   </si>
   <si>
@@ -431,9 +404,6 @@
     <t>Yageo</t>
   </si>
   <si>
-    <t>Resistor film, 2R4, ±5%, 805, 0.125W, -55...+125°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/yageo/RC0805JR-072R4L/311-2.4ARCT-ND/731220</t>
   </si>
   <si>
@@ -446,9 +416,6 @@
     <t>RC0805JR-0710KL</t>
   </si>
   <si>
-    <t>Resistor film, 10k, ±5%, 805, 0.125W, -55...+125°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/yageo/RC0805JR-0710KL/311-10KARCT-ND/731188</t>
   </si>
   <si>
@@ -461,9 +428,6 @@
     <t>RC0805FR-07100KL</t>
   </si>
   <si>
-    <t>Resistor film, 100k, ±1%, 805, 0.125W, -55...+125°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/yageo/RC0805FR-07100KL/311-100KCRCT-ND/730491</t>
   </si>
   <si>
@@ -476,9 +440,6 @@
     <t>RC0805FR-0724KL</t>
   </si>
   <si>
-    <t>Resistor film, 24k, ±1%, 805, 0.125W, -55...+125°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/yageo/RC0805FR-0724KL/311-24.0KCRCT-ND/730703</t>
   </si>
   <si>
@@ -491,9 +452,6 @@
     <t>RC0805JR-07120RL</t>
   </si>
   <si>
-    <t>Resistor film, 120R, ±5%, 805, 0.125W, -55...+125°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/yageo/RC0805JR-07120RL/311-120ARCT-ND/731194</t>
   </si>
   <si>
@@ -506,9 +464,6 @@
     <t>RC0805FR-0775KL</t>
   </si>
   <si>
-    <t>Resistor film, 75k, ±1%, 805, 0.125W, -55...+125°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/yageo/RC0805FR-0775KL/311-75.0KCRCT-ND/731080</t>
   </si>
   <si>
@@ -521,9 +476,6 @@
     <t>RC0805FR-075K1L</t>
   </si>
   <si>
-    <t>Resistor film, 5k1, ±1%, 805, 0.125W, -55...+125°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/yageo/RC0805FR-075K1L/311-5.10KCRCT-ND/730935</t>
   </si>
   <si>
@@ -536,9 +488,6 @@
     <t>RC0805FR-071KL</t>
   </si>
   <si>
-    <t>Resistor film, 1k, ±1%, 805, 0.125W, -55...+125°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/yageo/RC0805FR-071KL/311-1.00KCRCT-ND/730391</t>
   </si>
   <si>
@@ -566,9 +515,6 @@
     <t>RC0805FR-0730K9L</t>
   </si>
   <si>
-    <t>Resistor film, 30k9, ±1%, 805, 0.125W, -55...+125°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/yageo/RC0805FR-0730K9L/311-30.9KCRCT-ND/730794</t>
   </si>
   <si>
@@ -581,9 +527,6 @@
     <t>RC0805FR-07499KL</t>
   </si>
   <si>
-    <t>Resistor film, 499k, ±1%, 805, 0.125W, -55...+125°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/yageo/RC0805FR-07499KL/311-499KCRCT-ND/730934</t>
   </si>
   <si>
@@ -596,9 +539,6 @@
     <t>RC0805FR-0791KL</t>
   </si>
   <si>
-    <t>Resistor film, 91k, ±1%, 805, 0.125W, -55...+125°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/yageo/RC0805FR-0791KL/311-91.0KCRCT-ND/731149</t>
   </si>
   <si>
@@ -608,9 +548,6 @@
     <t>RC0805FR-0710KL</t>
   </si>
   <si>
-    <t>Resistor film, 10k, ±1%, 805, 0.125W, -55...+125°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/yageo/RC0805FR-0710KL/311-10.0KCRCT-ND/730482</t>
   </si>
   <si>
@@ -623,9 +560,6 @@
     <t>RC0805FR-0788K7L</t>
   </si>
   <si>
-    <t>Resistor film, 88k7, ±1%, 805, 0.125W, -55...+125°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/yageo/RC0805FR-0788K7L/311-88.7KCRCT-ND/731128</t>
   </si>
   <si>
@@ -638,9 +572,6 @@
     <t>RC0805JR-072K2L</t>
   </si>
   <si>
-    <t>Resistor film, 2k2, ±5%, 805, 0.125W, -55...+125°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/yageo/RC0805JR-072K2L/311-2.2KARCT-ND/731218</t>
   </si>
   <si>
@@ -656,9 +587,6 @@
     <t>TDK</t>
   </si>
   <si>
-    <t>NTC resistor, 4k7, ±5%, 805, 3650K, -55...+125°C</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/tdk-electronics-inc/B57401V2472J062/495-7444-1-ND/6073136</t>
   </si>
   <si>
@@ -798,6 +726,78 @@
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/ecs-inc/ECS-80-12-33-JGN-TR/50-ECS-80-12-33-JGN-CT-ND/10478769</t>
+  </si>
+  <si>
+    <t>Ceramic capacitor, 0.47μF, X7R, ±10%, 25V, 0805, -55...+125°C</t>
+  </si>
+  <si>
+    <t>Ceramic capacitor, 2.2μF, X7R, ±10%, 25V, 0805, -55...+125°C</t>
+  </si>
+  <si>
+    <t>Ceramic capacitor, 1μF, X7R, ±10%, 50V, 0805, -55...+125°C</t>
+  </si>
+  <si>
+    <t>Ceramic capacitor, 0.01μF, X7R, ±10%, 50V, 0805, -55...+125°C</t>
+  </si>
+  <si>
+    <t>Ceramic capacitor, 470pF, X7R, ±10%, 50V, 0805, -55...+125°C</t>
+  </si>
+  <si>
+    <t>Ceramic capacitor, 10μF, X7R, ±10%, 6.3V, 0805, -55...+125°C</t>
+  </si>
+  <si>
+    <t>Ceramic capacitor, 0.1μF, X7R, ±10%, 50V, 0805, -55...+125°C</t>
+  </si>
+  <si>
+    <t>Ceramic capacitor, 12pF, NPO, ±5%, 50V, 0805, -55...+125°C</t>
+  </si>
+  <si>
+    <t>Fixed inductor, 10μH, ±20%, 0805, 250mA, -55...+125°C</t>
+  </si>
+  <si>
+    <t>Resistor film, 2R4, ±5%, 0805, 0.125W, -55...+125°C</t>
+  </si>
+  <si>
+    <t>Resistor film, 10k, ±5%, 0805, 0.125W, -55...+125°C</t>
+  </si>
+  <si>
+    <t>Resistor film, 100k, ±1%, 0805, 0.125W, -55...+125°C</t>
+  </si>
+  <si>
+    <t>Resistor film, 24k, ±1%, 0805, 0.125W, -55...+125°C</t>
+  </si>
+  <si>
+    <t>Resistor film, 120R, ±5%, 0805, 0.125W, -55...+125°C</t>
+  </si>
+  <si>
+    <t>Resistor film, 75k, ±1%, 0805, 0.125W, -55...+125°C</t>
+  </si>
+  <si>
+    <t>Resistor film, 5k1, ±1%, 0805, 0.125W, -55...+125°C</t>
+  </si>
+  <si>
+    <t>Resistor film, 1k, ±1%, 0805, 0.125W, -55...+125°C</t>
+  </si>
+  <si>
+    <t>Resistor film, 30k9, ±1%, 0805, 0.125W, -55...+125°C</t>
+  </si>
+  <si>
+    <t>Resistor film, 499k, ±1%, 0805, 0.125W, -55...+125°C</t>
+  </si>
+  <si>
+    <t>Resistor film, 91k, ±1%, 0805, 0.125W, -55...+125°C</t>
+  </si>
+  <si>
+    <t>Resistor film, 10k, ±1%, 0805, 0.125W, -55...+125°C</t>
+  </si>
+  <si>
+    <t>Resistor film, 88k7, ±1%, 0805, 0.125W, -55...+125°C</t>
+  </si>
+  <si>
+    <t>Resistor film, 2k2, ±5%, 0805, 0.125W, -55...+125°C</t>
+  </si>
+  <si>
+    <t>NTC resistor, 4k7, ±5%, 0805, 3650K, -55...+125°C</t>
   </si>
 </sst>
 </file>
@@ -1386,8 +1386,8 @@
   </sheetPr>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,21 +1442,21 @@
         <v>1</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>10</v>
@@ -1465,44 +1465,44 @@
         <v>4</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="E4" s="2">
         <v>4</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>10</v>
@@ -1511,21 +1511,21 @@
         <v>1</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>10</v>
@@ -1534,44 +1534,44 @@
         <v>8</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2">
         <v>4</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>10</v>
@@ -1580,21 +1580,21 @@
         <v>2</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>10</v>
@@ -1603,21 +1603,21 @@
         <v>3</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>10</v>
@@ -1626,21 +1626,21 @@
         <v>10</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>52</v>
+        <v>237</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>10</v>
@@ -1649,21 +1649,21 @@
         <v>2</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>10</v>
@@ -1672,21 +1672,21 @@
         <v>2</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>10</v>
@@ -1695,848 +1695,848 @@
         <v>2</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>65</v>
+        <v>238</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>126</v>
+        <v>239</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E26" s="2">
         <v>3</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>132</v>
+        <v>240</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E27" s="2">
         <v>10</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>137</v>
+        <v>241</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>142</v>
+        <v>242</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>147</v>
+        <v>243</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E30" s="2">
         <v>6</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>152</v>
+        <v>244</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E31" s="2">
         <v>4</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>157</v>
+        <v>245</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E32" s="2">
         <v>2</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E33" s="2">
         <v>8</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E34" s="2">
         <v>2</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>177</v>
+        <v>248</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>182</v>
+        <v>249</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E38" s="2">
         <v>3</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E39" s="2">
         <v>1</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E40" s="2">
         <v>2</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="3" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E42" s="2">
         <v>3</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="3" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E43" s="2">
         <v>1</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="3" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E44" s="2">
         <v>1</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="3" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="E45" s="2">
         <v>3</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="3" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="E46" s="2">
         <v>1</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="3" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="E47" s="2">
         <v>2</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="3" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="E48" s="2">
         <v>1</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="3" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="3" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="E50" s="2">
         <v>1</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="8" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="E51" s="7">
         <v>1</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
